--- a/aula 152 - Openpyxl - Planilhas do Excel em Python/nova_planilha.xlsx
+++ b/aula 152 - Openpyxl - Planilhas do Excel em Python/nova_planilha.xlsx
@@ -482,7 +482,7 @@
         <v>1205</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>71.61</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="D5" s="2" t="n"/>
     </row>
@@ -494,7 +494,7 @@
         <v>1206</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>73.59</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="n"/>
     </row>
@@ -506,7 +506,7 @@
         <v>1207</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>23.52</v>
+        <v>33.3</v>
       </c>
       <c r="D7" s="2" t="n"/>
     </row>
@@ -518,7 +518,7 @@
         <v>1208</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45.36</v>
+        <v>91.87</v>
       </c>
       <c r="D8" s="2" t="n"/>
     </row>
@@ -530,7 +530,7 @@
         <v>1209</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>47.17</v>
+        <v>75.41</v>
       </c>
       <c r="D9" s="2" t="n"/>
     </row>
